--- a/data/outputs/OR/63.xlsx
+++ b/data/outputs/OR/63.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ141"/>
+  <dimension ref="A1:BR141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +928,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>3926874</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1341,6 +1352,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1556,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1755,6 +1768,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>3725362</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1950,6 +1968,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2157,6 +2176,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2388,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2563,6 +2584,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2766,6 +2788,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2973,6 +2996,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4289063</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3184,6 +3212,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3379,6 +3408,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3582,6 +3612,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3793,6 +3824,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3996,6 +4028,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4207,6 +4240,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4402,6 +4436,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4613,6 +4648,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4816,6 +4852,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5015,6 +5052,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5226,6 +5264,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5437,6 +5476,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5648,6 +5688,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5855,6 +5896,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6062,6 +6104,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6261,6 +6304,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6464,6 +6508,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6675,6 +6720,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6878,6 +6924,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7089,6 +7136,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7292,6 +7340,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7499,6 +7548,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>50164144</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7706,6 +7760,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3851406</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7901,6 +7960,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4852551</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8108,6 +8172,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8303,6 +8368,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8506,6 +8572,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8717,6 +8784,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4639676</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8928,6 +9000,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9139,6 +9212,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>45760129</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9334,6 +9412,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9525,6 +9604,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4512437</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9728,6 +9812,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9923,6 +10008,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10130,6 +10216,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10325,6 +10412,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10528,6 +10616,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10739,6 +10828,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10934,6 +11024,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11137,6 +11228,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11336,6 +11428,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11547,6 +11640,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11758,6 +11852,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11961,6 +12056,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12164,6 +12260,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12359,6 +12456,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12558,6 +12656,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12761,6 +12860,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12976,6 +13076,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13171,6 +13272,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13374,6 +13476,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13577,6 +13680,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13772,6 +13876,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13987,6 +14092,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14198,6 +14304,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14401,6 +14508,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14604,6 +14712,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14815,6 +14924,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15022,6 +15132,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15229,6 +15340,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15428,6 +15540,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15635,6 +15748,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15842,6 +15956,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>3065727</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16041,6 +16160,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16244,6 +16364,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16447,6 +16568,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16654,6 +16776,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16849,6 +16972,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17052,6 +17176,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17267,6 +17392,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17474,6 +17600,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17669,6 +17796,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17872,6 +18000,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18083,6 +18212,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18286,6 +18416,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18489,6 +18620,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18684,6 +18816,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18891,6 +19024,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19094,6 +19228,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19305,6 +19440,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19500,6 +19636,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19703,6 +19840,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19902,6 +20040,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20113,6 +20252,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20316,6 +20456,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20515,6 +20656,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>4435706</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20710,6 +20856,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>4265410</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20905,6 +21056,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21100,6 +21252,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21295,6 +21448,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21381,7 +21535,7 @@
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>Morabito, Reinaldo/0000-0002-3948-305X; Morabito, Reinaldo/0000-0002-3948-305X; </t>
+          <t>Morabito, Reinaldo/0000-0002-3948-305X; Morabito, Reinaldo/0000-0002-3948-305X;</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr">
@@ -21506,6 +21660,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21709,6 +21864,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21908,6 +22064,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22103,6 +22260,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22310,6 +22468,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22521,6 +22680,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22724,6 +22884,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -22919,6 +23080,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23122,6 +23284,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23337,6 +23500,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23536,6 +23700,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23743,6 +23908,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -23950,6 +24116,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24149,6 +24316,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24360,6 +24528,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>3019456</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24567,6 +24740,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -24770,6 +24944,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -24973,6 +25148,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25180,6 +25356,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25387,6 +25564,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -25602,6 +25780,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -25809,6 +25988,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26004,6 +26184,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26215,6 +26396,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26418,6 +26600,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -26617,6 +26800,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -26820,6 +27004,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27027,6 +27212,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27226,6 +27412,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27425,6 +27612,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -27628,6 +27816,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -27823,6 +28012,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28018,6 +28208,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28229,6 +28420,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28432,6 +28624,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -28639,6 +28832,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -28842,6 +29036,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29041,6 +29236,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29248,6 +29444,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
